--- a/results/fig5_CALB_data.xlsx
+++ b/results/fig5_CALB_data.xlsx
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3641864017949341</v>
+        <v>0.4300749247744064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2373917889769497</v>
+        <v>0.255263897198904</v>
       </c>
       <c r="D2" t="n">
         <v>0.2315269619844571</v>
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201327246774304</v>
+        <v>0.1717761142610414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0984210455185878</v>
+        <v>0.1034552040444705</v>
       </c>
       <c r="D3" t="n">
         <v>0.2373196759681131</v>
@@ -521,10 +521,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1890830438849314</v>
+        <v>0.1568383829265867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07088668695257037</v>
+        <v>0.0785677708644221</v>
       </c>
       <c r="D4" t="n">
         <v>0.2345706395466745</v>
@@ -544,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1822864759571562</v>
+        <v>0.143112926340585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05138274043134183</v>
+        <v>0.06981572904065483</v>
       </c>
       <c r="D5" t="n">
         <v>0.195949701905294</v>
@@ -567,10 +567,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1792047902598639</v>
+        <v>0.1360098636777746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05024676945876723</v>
+        <v>0.06862109809018667</v>
       </c>
       <c r="D6" t="n">
         <v>0.1960195213670506</v>
@@ -590,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1653275151398896</v>
+        <v>0.1288367523129157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06397585829127787</v>
+        <v>0.06794019481209386</v>
       </c>
       <c r="D7" t="n">
         <v>0.1948695738597064</v>
@@ -613,10 +613,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1516544818952965</v>
+        <v>0.1300230604221381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06480667228648614</v>
+        <v>0.05858999541637945</v>
       </c>
       <c r="D8" t="n">
         <v>0.1826419410394281</v>
@@ -636,10 +636,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.136286908241597</v>
+        <v>0.1320408868390709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05821487533006058</v>
+        <v>0.05431879241211775</v>
       </c>
       <c r="D9" t="n">
         <v>0.1682348395608183</v>
@@ -659,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1516238785438791</v>
+        <v>0.1523044183757928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05457308110960565</v>
+        <v>0.05521574770574234</v>
       </c>
       <c r="D10" t="n">
         <v>0.1717802372976267</v>
@@ -682,10 +682,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1484399108675609</v>
+        <v>0.1463449460930414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05308528611445684</v>
+        <v>0.05120057766040832</v>
       </c>
       <c r="D11" t="n">
         <v>0.1752026855986243</v>
@@ -705,10 +705,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1548932905635172</v>
+        <v>0.1460247566892164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05307934027626598</v>
+        <v>0.04718687877090438</v>
       </c>
       <c r="D12" t="n">
         <v>0.1691753254677734</v>
@@ -728,10 +728,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1481501617544776</v>
+        <v>0.1358286691973563</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0464517074826874</v>
+        <v>0.03857065126435414</v>
       </c>
       <c r="D13" t="n">
         <v>0.1750909715436084</v>
@@ -751,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1432245015606333</v>
+        <v>0.1267705750477363</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0440266701021739</v>
+        <v>0.03870927753243644</v>
       </c>
       <c r="D14" t="n">
         <v>0.1768861718426409</v>
@@ -774,10 +774,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1172799459962649</v>
+        <v>0.1023315904416462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04038783972751926</v>
+        <v>0.03384841093270213</v>
       </c>
       <c r="D15" t="n">
         <v>0.16777261274487</v>
@@ -797,10 +797,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1221935519379257</v>
+        <v>0.1024561660031886</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04866335810388057</v>
+        <v>0.04808580090662353</v>
       </c>
       <c r="D16" t="n">
         <v>0.1642386650729496</v>
@@ -820,10 +820,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1235940783037071</v>
+        <v>0.1040885145340021</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04307148347682558</v>
+        <v>0.043369363391465</v>
       </c>
       <c r="D17" t="n">
         <v>0.1690466213931482</v>
@@ -843,10 +843,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1293339635508688</v>
+        <v>0.1034794990760372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04579478498650104</v>
+        <v>0.04360870467898132</v>
       </c>
       <c r="D18" t="n">
         <v>0.1614657007935461</v>
@@ -866,10 +866,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1330407809510354</v>
+        <v>0.1092418721902008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0456452962714932</v>
+        <v>0.045010318447292</v>
       </c>
       <c r="D19" t="n">
         <v>0.1628952780435554</v>
@@ -889,10 +889,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1062629946196469</v>
+        <v>0.08977033304375535</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02574273386393538</v>
+        <v>0.02073594441626765</v>
       </c>
       <c r="D20" t="n">
         <v>0.1568013667333734</v>
@@ -912,10 +912,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1023149172151376</v>
+        <v>0.08952148221757839</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02379911999625004</v>
+        <v>0.006898011531314086</v>
       </c>
       <c r="D21" t="n">
         <v>0.1484830347743092</v>
@@ -935,10 +935,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09968726945523158</v>
+        <v>0.09378119339549112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02258953300533042</v>
+        <v>0.01919091528435141</v>
       </c>
       <c r="D22" t="n">
         <v>0.1567829702442118</v>
@@ -958,10 +958,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.09015434935329698</v>
+        <v>0.08083484083274091</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02192439034498764</v>
+        <v>0.01408039575873342</v>
       </c>
       <c r="D23" t="n">
         <v>0.1556329349591743</v>
@@ -981,10 +981,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09517856498422621</v>
+        <v>0.08527391782931266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01004863811458881</v>
+        <v>0.01274175302691839</v>
       </c>
       <c r="D24" t="n">
         <v>0.1518691265595893</v>
@@ -1004,10 +1004,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0930956584531374</v>
+        <v>0.08419729153349453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00987940336005955</v>
+        <v>0.02201480042206815</v>
       </c>
       <c r="D25" t="n">
         <v>0.1478284097177874</v>
@@ -1027,10 +1027,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08713499489196323</v>
+        <v>0.08033402235818908</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008944805304165459</v>
+        <v>0.01856249441289346</v>
       </c>
       <c r="D26" t="n">
         <v>0.1425769131811877</v>
@@ -1050,10 +1050,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1109038902498051</v>
+        <v>0.0976790225935643</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01667298171270869</v>
+        <v>0.01678053484984869</v>
       </c>
       <c r="D27" t="n">
         <v>0.1451492970225357</v>
@@ -1073,10 +1073,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09692685514877862</v>
+        <v>0.1012760710287428</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02990529881507027</v>
+        <v>0.02805606497256286</v>
       </c>
       <c r="D28" t="n">
         <v>0.1535585101450521</v>
@@ -1096,10 +1096,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09356873870349165</v>
+        <v>0.0967897493707864</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02418831246834548</v>
+        <v>0.02326512514366445</v>
       </c>
       <c r="D29" t="n">
         <v>0.1529528148301384</v>
@@ -1119,10 +1119,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09823405746760978</v>
+        <v>0.09365118996493151</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02115193929432953</v>
+        <v>0.02401221839941894</v>
       </c>
       <c r="D30" t="n">
         <v>0.1478953615815355</v>
@@ -1142,10 +1142,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09072954407487481</v>
+        <v>0.08142991621251149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01453388145085124</v>
+        <v>0.02606644353908011</v>
       </c>
       <c r="D31" t="n">
         <v>0.1475014585842147</v>
@@ -1165,10 +1165,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09897466501939838</v>
+        <v>0.08746635085144581</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0150747363622014</v>
+        <v>0.03063501413566459</v>
       </c>
       <c r="D32" t="n">
         <v>0.1374285554794414</v>
@@ -1188,10 +1188,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.09495721265568779</v>
+        <v>0.08409066837899161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00553989037377076</v>
+        <v>0.01901175078183716</v>
       </c>
       <c r="D33" t="n">
         <v>0.1348204572387598</v>
@@ -1211,10 +1211,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0918259590427109</v>
+        <v>0.08853714259238217</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002086066292351284</v>
+        <v>0.002713611280464382</v>
       </c>
       <c r="D34" t="n">
         <v>0.1327189617363498</v>
@@ -1234,10 +1234,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08615031394833363</v>
+        <v>0.08210766012758869</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01127584360674551</v>
+        <v>0.005589199376317727</v>
       </c>
       <c r="D35" t="n">
         <v>0.1319008071667958</v>
@@ -1257,10 +1257,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0873191379580298</v>
+        <v>0.08456707463309182</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01032761641741184</v>
+        <v>0.006527936863498254</v>
       </c>
       <c r="D36" t="n">
         <v>0.1320586503236196</v>
@@ -1280,10 +1280,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08277643238270825</v>
+        <v>0.0758248630695374</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009316370380939994</v>
+        <v>0.009636910980224862</v>
       </c>
       <c r="D37" t="n">
         <v>0.125039575797144</v>
@@ -1303,10 +1303,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07524674827893303</v>
+        <v>0.06753055003311664</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002760019337971714</v>
+        <v>0.008621111649060079</v>
       </c>
       <c r="D38" t="n">
         <v>0.1281105154548828</v>
@@ -1326,10 +1326,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07858999460389325</v>
+        <v>0.07543217142111232</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01863444954567562</v>
+        <v>0.02197400681826609</v>
       </c>
       <c r="D39" t="n">
         <v>0.1278448494574096</v>
@@ -1349,10 +1349,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0822869445598453</v>
+        <v>0.08191633176986363</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03155626481932234</v>
+        <v>0.03187847694313574</v>
       </c>
       <c r="D40" t="n">
         <v>0.1276442592490877</v>
@@ -1372,10 +1372,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.104201463175276</v>
+        <v>0.1003640184005662</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03680877065261699</v>
+        <v>0.0398575428851586</v>
       </c>
       <c r="D41" t="n">
         <v>0.1246906614583568</v>
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1107330794292666</v>
+        <v>0.1011829614231063</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04187672141318173</v>
+        <v>0.04859758772460227</v>
       </c>
       <c r="D42" t="n">
         <v>0.1196900569768609</v>
@@ -1418,10 +1418,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1000581905599674</v>
+        <v>0.09243801983044524</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02309992472696037</v>
+        <v>0.02883799668211805</v>
       </c>
       <c r="D43" t="n">
         <v>0.1194074907818394</v>
@@ -1441,10 +1441,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0786637237880476</v>
+        <v>0.07308990712034526</v>
       </c>
       <c r="C44" t="n">
-        <v>0.008425710653026868</v>
+        <v>0.001747746818155209</v>
       </c>
       <c r="D44" t="n">
         <v>0.1166855225251293</v>
@@ -1464,10 +1464,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0803719657814591</v>
+        <v>0.08694570433132769</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004415941098178677</v>
+        <v>0.01242159548961644</v>
       </c>
       <c r="D45" t="n">
         <v>0.1179516053009321</v>
@@ -1487,10 +1487,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07869143277599684</v>
+        <v>0.09369786697778433</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002609254491086632</v>
+        <v>0.01892580649906158</v>
       </c>
       <c r="D46" t="n">
         <v>0.1159898027556692</v>
@@ -1510,10 +1510,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09879068549103227</v>
+        <v>0.1140258115508374</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0174289540856015</v>
+        <v>0.02053542208712198</v>
       </c>
       <c r="D47" t="n">
         <v>0.1082091453832009</v>
@@ -1533,10 +1533,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09539315176819795</v>
+        <v>0.1041828367511729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03021590011148067</v>
+        <v>0.02998586886126967</v>
       </c>
       <c r="D48" t="n">
         <v>0.1058903520629497</v>
@@ -1556,10 +1556,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09472027880513634</v>
+        <v>0.08929911241700071</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02526096594326433</v>
+        <v>0.02571540885011694</v>
       </c>
       <c r="D49" t="n">
         <v>0.1057828443944285</v>
@@ -1579,10 +1579,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09428493530057365</v>
+        <v>0.07918697344873739</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01553345166843247</v>
+        <v>0.01344500578522714</v>
       </c>
       <c r="D50" t="n">
         <v>0.1038926508346621</v>
@@ -1602,10 +1602,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08091200743150025</v>
+        <v>0.07285939929506219</v>
       </c>
       <c r="C51" t="n">
-        <v>0.006662364569557147</v>
+        <v>0.007749596513067742</v>
       </c>
       <c r="D51" t="n">
         <v>0.1064587874409914</v>
@@ -1625,10 +1625,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.08433301202052074</v>
+        <v>0.07694193496065201</v>
       </c>
       <c r="C52" t="n">
-        <v>0.006667202879169922</v>
+        <v>0.01530853837800051</v>
       </c>
       <c r="D52" t="n">
         <v>0.1064823945738308</v>
@@ -1648,10 +1648,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08722731648855896</v>
+        <v>0.08402552901929239</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008233524078631062</v>
+        <v>0.01239550783891361</v>
       </c>
       <c r="D53" t="n">
         <v>0.1068066391774598</v>
@@ -1671,10 +1671,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07342220588698047</v>
+        <v>0.07236124748366234</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01325657463082085</v>
+        <v>0.01361867811866617</v>
       </c>
       <c r="D54" t="n">
         <v>0.1108169931935387</v>
@@ -1694,10 +1694,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07686272011584332</v>
+        <v>0.06487624109429171</v>
       </c>
       <c r="C55" t="n">
-        <v>0.004702537005197622</v>
+        <v>0.01817194813500781</v>
       </c>
       <c r="D55" t="n">
         <v>0.1130229495629244</v>
@@ -1717,10 +1717,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09483229268429703</v>
+        <v>0.07108843157304107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0207290033182962</v>
+        <v>0.03688174464749321</v>
       </c>
       <c r="D56" t="n">
         <v>0.1150962675361349</v>
@@ -1740,10 +1740,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07931733383666141</v>
+        <v>0.05604620257888263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0221208336083758</v>
+        <v>0.02445121738746085</v>
       </c>
       <c r="D57" t="n">
         <v>0.1138606449978757</v>
@@ -1763,10 +1763,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0645644271878273</v>
+        <v>0.05465933902835964</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01084979277949695</v>
+        <v>0.003524604781005429</v>
       </c>
       <c r="D58" t="n">
         <v>0.1122460073504223</v>
@@ -1786,10 +1786,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06394786060389428</v>
+        <v>0.06887843117171989</v>
       </c>
       <c r="C59" t="n">
-        <v>0.00639254317221884</v>
+        <v>0.01153254538421886</v>
       </c>
       <c r="D59" t="n">
         <v>0.1089437242296245</v>
@@ -1809,10 +1809,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0697405723764787</v>
+        <v>0.08275545553463291</v>
       </c>
       <c r="C60" t="n">
-        <v>0.009741014256456968</v>
+        <v>0.008710825525360807</v>
       </c>
       <c r="D60" t="n">
         <v>0.1132118909656108</v>
@@ -1832,10 +1832,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09175877777624068</v>
+        <v>0.1058896240267333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0190740373928092</v>
+        <v>0.007518502716552698</v>
       </c>
       <c r="D61" t="n">
         <v>0.1103436084166093</v>
@@ -1855,10 +1855,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1011870546245353</v>
+        <v>0.1039204439251719</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0183788410202791</v>
+        <v>0.01515402755015257</v>
       </c>
       <c r="D62" t="n">
         <v>0.1096342025844017</v>
@@ -1878,10 +1878,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09467793809999613</v>
+        <v>0.08985976623380644</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005677959915599533</v>
+        <v>0.01180012707065736</v>
       </c>
       <c r="D63" t="n">
         <v>0.1122938029582049</v>
@@ -1901,10 +1901,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08119108965415558</v>
+        <v>0.07168277671263855</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002947788045243625</v>
+        <v>0.01050342193777969</v>
       </c>
       <c r="D64" t="n">
         <v>0.1109342655765339</v>
@@ -1924,10 +1924,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07474501465996883</v>
+        <v>0.06435102592286089</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01433698426088122</v>
+        <v>0.0007713366319274972</v>
       </c>
       <c r="D65" t="n">
         <v>0.1125233534575695</v>
@@ -1947,10 +1947,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08320907613725143</v>
+        <v>0.06807405551394941</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02397735139399066</v>
+        <v>0.01737818878692008</v>
       </c>
       <c r="D66" t="n">
         <v>0.1155722961950308</v>
@@ -1970,10 +1970,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08560759043468051</v>
+        <v>0.07016506546092947</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01843549700773044</v>
+        <v>0.01367123173715661</v>
       </c>
       <c r="D67" t="n">
         <v>0.1111023482671599</v>
@@ -1993,10 +1993,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09248119807781596</v>
+        <v>0.0782191123888477</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01545641227195919</v>
+        <v>0.02007297753441954</v>
       </c>
       <c r="D68" t="n">
         <v>0.1116202265507961</v>
@@ -2016,10 +2016,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08350417279411548</v>
+        <v>0.0754102305978452</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01048789510344268</v>
+        <v>0.01454738886054256</v>
       </c>
       <c r="D69" t="n">
         <v>0.1145074187548979</v>
@@ -2039,10 +2039,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07009464666135783</v>
+        <v>0.06647596225623131</v>
       </c>
       <c r="C70" t="n">
-        <v>0.008904590352699051</v>
+        <v>0.007527435002320327</v>
       </c>
       <c r="D70" t="n">
         <v>0.1177539793257127</v>
@@ -2062,10 +2062,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06533894748539271</v>
+        <v>0.07370373318125384</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01020935174300811</v>
+        <v>0.01260270761866227</v>
       </c>
       <c r="D71" t="n">
         <v>0.1187536995186071</v>
@@ -2085,10 +2085,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06933387607141545</v>
+        <v>0.08117393938247863</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01555555086617821</v>
+        <v>0.01679563941586899</v>
       </c>
       <c r="D72" t="n">
         <v>0.1137755661527644</v>
@@ -2108,10 +2108,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07289372695238339</v>
+        <v>0.08299209712771165</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01287515471519768</v>
+        <v>0.004514448361414266</v>
       </c>
       <c r="D73" t="n">
         <v>0.1161675733999921</v>
@@ -2131,10 +2131,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07967859140732465</v>
+        <v>0.08293004840133987</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01500131851067881</v>
+        <v>0.01197553815312427</v>
       </c>
       <c r="D74" t="n">
         <v>0.1140250513016755</v>
@@ -2154,10 +2154,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06893381434637146</v>
+        <v>0.06780223723861284</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01537709541116422</v>
+        <v>0.01457733697646168</v>
       </c>
       <c r="D75" t="n">
         <v>0.1142711905007527</v>
@@ -2177,10 +2177,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07080372457687978</v>
+        <v>0.07000216531176549</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01030424127799166</v>
+        <v>0.009236712301453349</v>
       </c>
       <c r="D76" t="n">
         <v>0.114427312368508</v>
@@ -2200,10 +2200,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07474047996079759</v>
+        <v>0.07513741639506734</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0106781942043606</v>
+        <v>0.01123491105147523</v>
       </c>
       <c r="D77" t="n">
         <v>0.1139026730219059</v>
@@ -2223,10 +2223,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08126132916471014</v>
+        <v>0.08276784074971909</v>
       </c>
       <c r="C78" t="n">
-        <v>0.008153571596967</v>
+        <v>0.009724087772840624</v>
       </c>
       <c r="D78" t="n">
         <v>0.1162605223766887</v>
@@ -2246,10 +2246,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07897844766563926</v>
+        <v>0.0769896537116443</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01412545968187535</v>
+        <v>0.01132306657880019</v>
       </c>
       <c r="D79" t="n">
         <v>0.1182184871032234</v>
@@ -2269,10 +2269,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06944992469125175</v>
+        <v>0.06606113973699955</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01016238294113886</v>
+        <v>0.005441413778288919</v>
       </c>
       <c r="D80" t="n">
         <v>0.1223080256314032</v>
@@ -2292,10 +2292,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.06461673917947593</v>
+        <v>0.05865250347158121</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007900885805647776</v>
+        <v>0.002978682526953628</v>
       </c>
       <c r="D81" t="n">
         <v>0.1240711091235513</v>
@@ -2315,10 +2315,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06531402534862052</v>
+        <v>0.05744863650733654</v>
       </c>
       <c r="C82" t="n">
-        <v>0.009655483763820926</v>
+        <v>0.004852373330513417</v>
       </c>
       <c r="D82" t="n">
         <v>0.1250525515387599</v>
@@ -2338,10 +2338,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06432572952506785</v>
+        <v>0.06622203886548773</v>
       </c>
       <c r="C83" t="n">
-        <v>0.004901027777011997</v>
+        <v>0.003437022046452075</v>
       </c>
       <c r="D83" t="n">
         <v>0.1279468042270303</v>
@@ -2361,10 +2361,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06732825685737918</v>
+        <v>0.07447137464029184</v>
       </c>
       <c r="C84" t="n">
-        <v>0.006432463892941906</v>
+        <v>0.01341068042717724</v>
       </c>
       <c r="D84" t="n">
         <v>0.1279787653826953</v>
@@ -2384,10 +2384,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07106416907099138</v>
+        <v>0.07882521884546649</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01244654351983137</v>
+        <v>0.0234220429280523</v>
       </c>
       <c r="D85" t="n">
         <v>0.1275550115125526</v>
@@ -2407,10 +2407,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.07579315999459389</v>
+        <v>0.08157391182166629</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01385926871876359</v>
+        <v>0.02145378611037379</v>
       </c>
       <c r="D86" t="n">
         <v>0.13029955898689</v>
@@ -2430,10 +2430,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.08044956058403743</v>
+        <v>0.07304613314339761</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02396661245283253</v>
+        <v>0.01556504989395628</v>
       </c>
       <c r="D87" t="n">
         <v>0.131136399264919</v>
@@ -2453,10 +2453,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.07220862027923784</v>
+        <v>0.05991946628498342</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02202493510123597</v>
+        <v>0.007801761709659998</v>
       </c>
       <c r="D88" t="n">
         <v>0.1315313371134813</v>
@@ -2476,10 +2476,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07054925137062759</v>
+        <v>0.05999019788891292</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01670711860822428</v>
+        <v>0.004883127808673013</v>
       </c>
       <c r="D89" t="n">
         <v>0.1346879246701988</v>
@@ -2499,10 +2499,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.07483636855722067</v>
+        <v>0.06374764641765181</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01375387055071167</v>
+        <v>0.01065654578423371</v>
       </c>
       <c r="D90" t="n">
         <v>0.1332517863720364</v>
@@ -2522,10 +2522,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.07507009081284455</v>
+        <v>0.06874377762530136</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01092396173772381</v>
+        <v>0.01093009901957999</v>
       </c>
       <c r="D91" t="n">
         <v>0.1335496908453785</v>
@@ -2545,10 +2545,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0870077792515261</v>
+        <v>0.07582843247653197</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01279848957760218</v>
+        <v>0.01721911889800938</v>
       </c>
       <c r="D92" t="n">
         <v>0.1354700008045439</v>
@@ -2568,10 +2568,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.07914299695391651</v>
+        <v>0.06705480886828546</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01930194345758144</v>
+        <v>0.02425849108481481</v>
       </c>
       <c r="D93" t="n">
         <v>0.1353303806259686</v>
@@ -2591,10 +2591,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0780922035245996</v>
+        <v>0.06828583778611307</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0242122376463151</v>
+        <v>0.02730132483899393</v>
       </c>
       <c r="D94" t="n">
         <v>0.1360904616295363</v>
@@ -2614,10 +2614,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.07730184199171157</v>
+        <v>0.07278713359664916</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01031406272240014</v>
+        <v>0.01323560431098768</v>
       </c>
       <c r="D95" t="n">
         <v>0.136595488523571</v>
@@ -2637,10 +2637,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06753740103270164</v>
+        <v>0.07160894397714614</v>
       </c>
       <c r="C96" t="n">
-        <v>0.004950132948035783</v>
+        <v>0.007710898749870223</v>
       </c>
       <c r="D96" t="n">
         <v>0.137862384330988</v>
@@ -2660,10 +2660,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06822106284503902</v>
+        <v>0.07523794044613664</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01134209499089894</v>
+        <v>0.0154795348372804</v>
       </c>
       <c r="D97" t="n">
         <v>0.1396821422291354</v>
@@ -2683,10 +2683,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.06935152144647543</v>
+        <v>0.0683451299359254</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01038339380210254</v>
+        <v>0.009380302500482414</v>
       </c>
       <c r="D98" t="n">
         <v>0.1401734601232492</v>
@@ -2706,10 +2706,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07281274631067132</v>
+        <v>0.05986633555157698</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01287729308939971</v>
+        <v>0.007686175920898666</v>
       </c>
       <c r="D99" t="n">
         <v>0.137604582919526</v>
@@ -2729,10 +2729,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0806464935866648</v>
+        <v>0.05924353447614746</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01043141184119614</v>
+        <v>0.01983992916609123</v>
       </c>
       <c r="D100" t="n">
         <v>0.1334431518798016</v>
@@ -2752,10 +2752,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1006521629252587</v>
+        <v>0.08565057024599994</v>
       </c>
       <c r="C101" t="n">
-        <v>0.009865392059571538</v>
+        <v>0.03013640926435517</v>
       </c>
       <c r="D101" t="n">
         <v>0.1258187561931292</v>

--- a/results/fig5_CALB_data.xlsx
+++ b/results/fig5_CALB_data.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4300749247744064</v>
+        <v>0.1330325355253185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.255263897198904</v>
+        <v>0.036031780108434</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2315269619844571</v>
+        <v>0.207353812422537</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06065046984450679</v>
+        <v>0.123774893310664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4659478078103519</v>
+        <v>0.2163672271574362</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2474941158522291</v>
+        <v>0.08372362618644895</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1717761142610414</v>
+        <v>0.1226478185387104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1034552040444705</v>
+        <v>0.03896597116129311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2373196759681131</v>
+        <v>0.1267785303150475</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06031052935938165</v>
+        <v>0.02172898809317854</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3643774969186663</v>
+        <v>0.1672517858255098</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2528795553734948</v>
+        <v>0.04791419544834176</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1568383829265867</v>
+        <v>0.09009887732237094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0785677708644221</v>
+        <v>0.006348122755770821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2345706395466745</v>
+        <v>0.1367939755774343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04954132074441553</v>
+        <v>0.01735042475521537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3164843272018174</v>
+        <v>0.1498564485402795</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2358082196735258</v>
+        <v>0.0217811597462423</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143112926340585</v>
+        <v>0.07864696439803075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06981572904065483</v>
+        <v>0.006775489312492701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.195949701905294</v>
+        <v>0.1446200566004429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01838296899620368</v>
+        <v>0.02209680898976345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2705666457237526</v>
+        <v>0.1254087472266388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2174779931999791</v>
+        <v>0.03597665928839455</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1360098636777746</v>
+        <v>0.07723980309358712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06862109809018667</v>
+        <v>0.01658117705552341</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1960195213670506</v>
+        <v>0.150443636510085</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02745210596668465</v>
+        <v>0.02809233764425452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.227975119194338</v>
+        <v>0.1308809681474503</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1579856794627751</v>
+        <v>0.02697885024026875</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1288367523129157</v>
+        <v>0.08524536801992026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06794019481209386</v>
+        <v>0.007202779457377188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1948695738597064</v>
+        <v>0.1447652005709773</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02711974238631317</v>
+        <v>0.02991178629704939</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2470089240575373</v>
+        <v>0.1447953683846317</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1168840883287825</v>
+        <v>0.00887016766685513</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1300230604221381</v>
+        <v>0.07538248572733393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05858999541637945</v>
+        <v>0.01378629375290367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1826419410394281</v>
+        <v>0.1491094930967762</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01755153279306135</v>
+        <v>0.02724662380744547</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2439997371326295</v>
+        <v>0.1277390533784009</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0956638213857717</v>
+        <v>0.01370624941642365</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1320408868390709</v>
+        <v>0.07090402826927657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05431879241211775</v>
+        <v>0.01026046248896272</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1682348395608183</v>
+        <v>0.1508709996203265</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0175373809607519</v>
+        <v>0.03436155424872265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2351288218072557</v>
+        <v>0.1149111617658698</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05622434113319046</v>
+        <v>0.02374640185519316</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1523044183757928</v>
+        <v>0.07395287823391762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05521574770574234</v>
+        <v>0.007086222393070669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1717802372976267</v>
+        <v>0.1460190553651383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01984176886490133</v>
+        <v>0.03504004495323123</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2203040958951502</v>
+        <v>0.1185899211804554</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03645423962476761</v>
+        <v>0.01584988789095533</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1463449460930414</v>
+        <v>0.07178372175575727</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05120057766040832</v>
+        <v>0.01492967457746201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1752026855986243</v>
+        <v>0.1533455372024058</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02585124854224945</v>
+        <v>0.03437449989351912</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2346808156242243</v>
+        <v>0.1134206129110337</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01789793833456849</v>
+        <v>0.02773432781936877</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1460247566892164</v>
+        <v>0.07073572557650708</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04718687877090438</v>
+        <v>0.01034200581063371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1691753254677734</v>
+        <v>0.1432408108052294</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0289986779199543</v>
+        <v>0.0370792792571043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2678774860092635</v>
+        <v>0.124795750998395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0127139487284312</v>
+        <v>0.00328341404830475</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1358286691973563</v>
+        <v>0.07317935196699706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03857065126435414</v>
+        <v>0.01355504291165676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1750909715436084</v>
+        <v>0.1492659356048153</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03600264303505131</v>
+        <v>0.03702346693941606</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2503496154426848</v>
+        <v>0.1107158246944916</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006247153113481497</v>
+        <v>0.03145974741269068</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1267705750477363</v>
+        <v>0.07629640770982071</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03870927753243644</v>
+        <v>0.0130387258811633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1768861718426409</v>
+        <v>0.1443444476709599</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03424263772354098</v>
+        <v>0.03828062770537165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2607882597331871</v>
+        <v>0.1060608026045858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01834843474587765</v>
+        <v>0.02300117396542474</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1023315904416462</v>
+        <v>0.07120410297357717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03384841093270213</v>
+        <v>0.01235271265785416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16777261274487</v>
+        <v>0.1267616441340036</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02624179818803618</v>
+        <v>0.04180365943333467</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2508653717396358</v>
+        <v>0.1047139769123136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01929183292965261</v>
+        <v>0.008685629829664785</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1024561660031886</v>
+        <v>0.06980811175423615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04808580090662353</v>
+        <v>0.01204681312480486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1642386650729496</v>
+        <v>0.1324289792807243</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03755754119557675</v>
+        <v>0.04091031227051662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2647416767667597</v>
+        <v>0.1117699642087791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02434178113353643</v>
+        <v>0.005659875904155942</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1040885145340021</v>
+        <v>0.07396254338533818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.043369363391465</v>
+        <v>0.01229420284781415</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1690466213931482</v>
+        <v>0.1274433198168835</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04010445548838884</v>
+        <v>0.04104609201608506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2714349087876542</v>
+        <v>0.1044332907458197</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02547483102128157</v>
+        <v>0.02690610944320986</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1034794990760372</v>
+        <v>0.07312631441224313</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04360870467898132</v>
+        <v>0.01089223225119641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1614657007935461</v>
+        <v>0.1209503256549643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03390421198513329</v>
+        <v>0.03851732745963694</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2498411593685342</v>
+        <v>0.09807752799656588</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01947899527325024</v>
+        <v>0.02535557930743633</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1092418721902008</v>
+        <v>0.08444210473956422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.045010318447292</v>
+        <v>0.01028200610947234</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1628952780435554</v>
+        <v>0.1219379435857311</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02945294053705504</v>
+        <v>0.03459944198199571</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2805925596061569</v>
+        <v>0.1141375484409868</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004274972002668877</v>
+        <v>0.02247739909834093</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08977033304375535</v>
+        <v>0.07251801998503997</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02073594441626765</v>
+        <v>0.008301443207412556</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1568013667333734</v>
+        <v>0.1152135059624128</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02947137500343681</v>
+        <v>0.03948211394492537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.257915588731852</v>
+        <v>0.1095036493572644</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01631698291711018</v>
+        <v>0.005963736104893294</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08952148221757839</v>
+        <v>0.07983151390416046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006898011531314086</v>
+        <v>0.01132600091827446</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1484830347743092</v>
+        <v>0.1169585656830677</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02863565115842532</v>
+        <v>0.0408763721387433</v>
       </c>
       <c r="F21" t="n">
-        <v>0.241397038029724</v>
+        <v>0.1034814964057334</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02952507351267287</v>
+        <v>0.004671127939553666</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09378119339549112</v>
+        <v>0.07940592899168808</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01919091528435141</v>
+        <v>0.01237269897525089</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1567829702442118</v>
+        <v>0.1159759477606818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03403237843369031</v>
+        <v>0.04329646322139513</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2417543678750539</v>
+        <v>0.1017884501667401</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03680915681218957</v>
+        <v>0.004915496300213683</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08083484083274091</v>
+        <v>0.07740082033793054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01408039575873342</v>
+        <v>0.005969691540375049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1556329349591743</v>
+        <v>0.1125103068233252</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03202947762141942</v>
+        <v>0.04569920844319639</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2550306435852908</v>
+        <v>0.1019386247423144</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04406578641575031</v>
+        <v>0.008500976136924588</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08527391782931266</v>
+        <v>0.0747762401959516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01274175302691839</v>
+        <v>0.007101934830706813</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1518691265595893</v>
+        <v>0.1170828825726604</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03050494863381934</v>
+        <v>0.04475565099575676</v>
       </c>
       <c r="F24" t="n">
-        <v>0.280615754189175</v>
+        <v>0.1036037228306997</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01966501184447848</v>
+        <v>0.00604822339092032</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08419729153349453</v>
+        <v>0.07772888746923777</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02201480042206815</v>
+        <v>0.005704615855526523</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1478284097177874</v>
+        <v>0.1248233798538619</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03215842695945671</v>
+        <v>0.04216103617830153</v>
       </c>
       <c r="F25" t="n">
-        <v>0.251715322027207</v>
+        <v>0.1162908312323152</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02215956870547338</v>
+        <v>0.0104686324672003</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08033402235818908</v>
+        <v>0.07725231683741157</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01856249441289346</v>
+        <v>0.01039877967881122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1425769131811877</v>
+        <v>0.1281978022642316</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02773770206217436</v>
+        <v>0.04502374638155261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.241033219593552</v>
+        <v>0.1135560088750462</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0229475980146574</v>
+        <v>0.01030771096235903</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0976790225935643</v>
+        <v>0.07968748570656851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01678053484984869</v>
+        <v>0.00321199531935274</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1451492970225357</v>
+        <v>0.1302958657198232</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03006943862642117</v>
+        <v>0.0418110879521791</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2473022708655395</v>
+        <v>0.108030760590052</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01374410702356137</v>
+        <v>0.01624859456735429</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1012760710287428</v>
+        <v>0.07778263826259245</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02805606497256286</v>
+        <v>0.004911309667969585</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1535585101450521</v>
+        <v>0.1286461918092879</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03473207299951995</v>
+        <v>0.04038527169619187</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2446610847966615</v>
+        <v>0.09679888417456202</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01070261883439578</v>
+        <v>0.01286740370598776</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0967897493707864</v>
+        <v>0.07610393065533348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02326512514366445</v>
+        <v>0.006254511480439846</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1529528148301384</v>
+        <v>0.1233448535429783</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0316621068220394</v>
+        <v>0.03911739881438597</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2442004131143656</v>
+        <v>0.1003836323920328</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01589569073090994</v>
+        <v>0.01071254713250373</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09365118996493151</v>
+        <v>0.07826872694357889</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02401221839941894</v>
+        <v>0.005313155845950289</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1478953615815355</v>
+        <v>0.1193147857401543</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02857293623400666</v>
+        <v>0.04002510382424059</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2372922006137177</v>
+        <v>0.1095930954600078</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02229775773855341</v>
+        <v>0.01285523242564468</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08142991621251149</v>
+        <v>0.07968965672222572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02606644353908011</v>
+        <v>0.003317209286659417</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1475014585842147</v>
+        <v>0.1202000725758485</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03145398075273082</v>
+        <v>0.04153518945996416</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2337633253771835</v>
+        <v>0.1188258653191493</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02988806407921173</v>
+        <v>0.01827898148335029</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08746635085144581</v>
+        <v>0.07760982205161432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03063501413566459</v>
+        <v>0.005497069163830094</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1374285554794414</v>
+        <v>0.1233637959642727</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02699671552167099</v>
+        <v>0.0419278266669558</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2334247760430969</v>
+        <v>0.1057201011458625</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01818974241330799</v>
+        <v>0.01835188249135137</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08409066837899161</v>
+        <v>0.07935105371247751</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01901175078183716</v>
+        <v>0.003119017430940178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1348204572387598</v>
+        <v>0.1155455936244376</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02379941287808699</v>
+        <v>0.03998253482158488</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2473550038707819</v>
+        <v>0.1006466281011609</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01716933800598154</v>
+        <v>0.006198131819349505</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08853714259238217</v>
+        <v>0.07796259088985313</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002713611280464382</v>
+        <v>0.005892274094864089</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1327189617363498</v>
+        <v>0.1261830080779311</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02269725804872041</v>
+        <v>0.04179473587189062</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2365928413714405</v>
+        <v>0.1044875496128968</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02128741482256009</v>
+        <v>0.004983382998098369</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08210766012758869</v>
+        <v>0.07656404690205794</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005589199376317727</v>
+        <v>0.005953088693871554</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1319008071667958</v>
+        <v>0.1222017415441128</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0283055240316329</v>
+        <v>0.04160609874411211</v>
       </c>
       <c r="F35" t="n">
-        <v>0.236383571002512</v>
+        <v>0.1150960499159568</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02685379200648508</v>
+        <v>0.00990838358599825</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08456707463309182</v>
+        <v>0.07686390698843598</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006527936863498254</v>
+        <v>0.006047282892441442</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1320586503236196</v>
+        <v>0.1278069481286936</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03169315294012012</v>
+        <v>0.03598229539164335</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2229612489621515</v>
+        <v>0.1149852235673745</v>
       </c>
       <c r="G36" t="n">
-        <v>0.033543462602561</v>
+        <v>0.01856239387858487</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0758248630695374</v>
+        <v>0.08381711033927881</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009636910980224862</v>
+        <v>0.008155481078961569</v>
       </c>
       <c r="D37" t="n">
-        <v>0.125039575797144</v>
+        <v>0.1209118918957161</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02988186624804011</v>
+        <v>0.03852272014399453</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2210799970451985</v>
+        <v>0.1253436063417606</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03542995244516087</v>
+        <v>0.02468570046256379</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06753055003311664</v>
+        <v>0.07597362627445588</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008621111649060079</v>
+        <v>0.007913981052425131</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1281105154548828</v>
+        <v>0.1180207843572174</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02826809421430407</v>
+        <v>0.03351733809947641</v>
       </c>
       <c r="F38" t="n">
-        <v>0.229685400278328</v>
+        <v>0.1253742833259323</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03036990351749365</v>
+        <v>0.02453174998816306</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07543217142111232</v>
+        <v>0.07599525251770242</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02197400681826609</v>
+        <v>0.008075637252434936</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1278448494574096</v>
+        <v>0.123707607553964</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03213870486804032</v>
+        <v>0.03768223075198216</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2354065783019277</v>
+        <v>0.08484662711703128</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03738815149026169</v>
+        <v>0.01154899787366376</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08191633176986363</v>
+        <v>0.07642873964802516</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03187847694313574</v>
+        <v>0.006012215039199619</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1276442592490877</v>
+        <v>0.1199421095647266</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02909378794337608</v>
+        <v>0.03464142232768091</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2287014102608785</v>
+        <v>0.09992894893199812</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0248267292293777</v>
+        <v>0.01701213446568283</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1003640184005662</v>
+        <v>0.07102600500548083</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0398575428851586</v>
+        <v>0.009036894987316437</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1246906614583568</v>
+        <v>0.116516004492111</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02701230662878731</v>
+        <v>0.03099376882145637</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2309032681765904</v>
+        <v>0.1230904891086308</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04511026131908689</v>
+        <v>0.03549625112987126</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1011829614231063</v>
+        <v>0.07790442509768512</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04859758772460227</v>
+        <v>0.005448720406728082</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1196900569768609</v>
+        <v>0.1210482055503556</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0292034121901405</v>
+        <v>0.03346072496942144</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2149122518564932</v>
+        <v>0.08916785847102365</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03310868146743686</v>
+        <v>0.01475349054295262</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09243801983044524</v>
+        <v>0.07960661593337975</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02883799668211805</v>
+        <v>0.00300653512329835</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1194074907818394</v>
+        <v>0.1146312979249726</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02505820067808124</v>
+        <v>0.03518264423514916</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2288764460205717</v>
+        <v>0.07633193892326216</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02924242306809818</v>
+        <v>0.01101429034001067</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07308990712034526</v>
+        <v>0.07443033252057213</v>
       </c>
       <c r="C44" t="n">
-        <v>0.001747746818155209</v>
+        <v>0.008522991690381839</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1166855225251293</v>
+        <v>0.1104714060841774</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02614958057085951</v>
+        <v>0.0316949296884174</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2333771638299621</v>
+        <v>0.09660636128133417</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04534794820520815</v>
+        <v>0.01023591700062724</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08694570433132769</v>
+        <v>0.08265158576863833</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01242159548961644</v>
+        <v>0.004763153086782926</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1179516053009321</v>
+        <v>0.1137266147198411</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02745053501889687</v>
+        <v>0.03125493170797381</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2267843037547706</v>
+        <v>0.0911415950345484</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04008388908693355</v>
+        <v>0.0184928834869506</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09369786697778433</v>
+        <v>0.0732078912704861</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01892580649906158</v>
+        <v>0.01032488975698098</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1159898027556692</v>
+        <v>0.1054090188535572</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0248565416853927</v>
+        <v>0.0347682450008954</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2422393789141928</v>
+        <v>0.1116243190647276</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04561042879043498</v>
+        <v>0.01736185912993106</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1140258115508374</v>
+        <v>0.0752044510191156</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02053542208712198</v>
+        <v>0.0167437913933209</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1082091453832009</v>
+        <v>0.1070655964175223</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02362133703307331</v>
+        <v>0.02852109425848211</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2426465362268198</v>
+        <v>0.0807218506963356</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0380487585770291</v>
+        <v>0.01079277824796777</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1041828367511729</v>
+        <v>0.07321477272558448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02998586886126967</v>
+        <v>0.007865374085127334</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1058903520629497</v>
+        <v>0.1048285571804058</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0227444742013227</v>
+        <v>0.02651095226211148</v>
       </c>
       <c r="F48" t="n">
-        <v>0.239163983801163</v>
+        <v>0.1078006284543736</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03813971227798817</v>
+        <v>0.01673130229061876</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08929911241700071</v>
+        <v>0.07779836464497315</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02571540885011694</v>
+        <v>0.005667064034165868</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1057828443944285</v>
+        <v>0.1121698700191857</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02097145217111044</v>
+        <v>0.02847783598684428</v>
       </c>
       <c r="F49" t="n">
-        <v>0.240585078323818</v>
+        <v>0.1200202964538067</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01625695442838421</v>
+        <v>0.02261311981610364</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07918697344873739</v>
+        <v>0.08139615849922845</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01344500578522714</v>
+        <v>0.01013187420802058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1038926508346621</v>
+        <v>0.1082833831434027</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01713944250365434</v>
+        <v>0.03139635941080673</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2481251844312138</v>
+        <v>0.1275991192243407</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01521598901957945</v>
+        <v>0.02387361874684142</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07285939929506219</v>
+        <v>0.08340762456663094</v>
       </c>
       <c r="C51" t="n">
-        <v>0.007749596513067742</v>
+        <v>0.008321542467200417</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1064587874409914</v>
+        <v>0.1097405371869008</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01680723937415244</v>
+        <v>0.02572957661128235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2651922943772737</v>
+        <v>0.08689264297842157</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01775211886575347</v>
+        <v>0.006380059083949069</v>
       </c>
     </row>
     <row r="52">
@@ -1625,22 +1625,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07694193496065201</v>
+        <v>0.07554873207928382</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01530853837800051</v>
+        <v>0.008018125278876931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1064823945738308</v>
+        <v>0.1054792114158663</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02055206156413381</v>
+        <v>0.02042076478397373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2510162998717375</v>
+        <v>0.1010768201116184</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04528850006272349</v>
+        <v>0.002438422368261915</v>
       </c>
     </row>
     <row r="53">
@@ -1648,22 +1648,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08402552901929239</v>
+        <v>0.07968341814385914</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01239550783891361</v>
+        <v>0.003022107293663455</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1068066391774598</v>
+        <v>0.105903025309252</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02043274031462579</v>
+        <v>0.02334398245195605</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2439142712408285</v>
+        <v>0.1123913575684664</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04267848289735797</v>
+        <v>0.01736828009744158</v>
       </c>
     </row>
     <row r="54">
@@ -1671,22 +1671,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07236124748366234</v>
+        <v>0.07303298017423429</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01361867811866617</v>
+        <v>0.008483136916447014</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1108169931935387</v>
+        <v>0.09534121302080752</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01979483291971256</v>
+        <v>0.0231745145673624</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2657111682276574</v>
+        <v>0.09053912567380316</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03827871292917234</v>
+        <v>0.01585797603089186</v>
       </c>
     </row>
     <row r="55">
@@ -1694,22 +1694,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06487624109429171</v>
+        <v>0.0763055142193191</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01817194813500781</v>
+        <v>0.007705825071202789</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1130229495629244</v>
+        <v>0.09486764692219214</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02223231996283974</v>
+        <v>0.02615872524147954</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2534884079387733</v>
+        <v>0.1017705590362899</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04648744073644905</v>
+        <v>0.01251124557459385</v>
       </c>
     </row>
     <row r="56">
@@ -1717,22 +1717,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07108843157304107</v>
+        <v>0.08295971551030401</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03688174464749321</v>
+        <v>0.004755256889461682</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1150962675361349</v>
+        <v>0.09484164886691682</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01987254977997821</v>
+        <v>0.02749578400997943</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2772148636913935</v>
+        <v>0.1034908248318795</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0526294567996529</v>
+        <v>0.03140638134880679</v>
       </c>
     </row>
     <row r="57">
@@ -1740,22 +1740,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05604620257888263</v>
+        <v>0.08151328141784413</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02445121738746085</v>
+        <v>0.00499491778920831</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1138606449978757</v>
+        <v>0.09309787943561786</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02250456531519435</v>
+        <v>0.02685866298490259</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2635872174217884</v>
+        <v>0.105794108817201</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05009603871508685</v>
+        <v>0.01718033165765277</v>
       </c>
     </row>
     <row r="58">
@@ -1763,22 +1763,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05465933902835964</v>
+        <v>0.07931596840064969</v>
       </c>
       <c r="C58" t="n">
-        <v>0.003524604781005429</v>
+        <v>0.003269562955987616</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1122460073504223</v>
+        <v>0.09133499831843439</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02116203021550456</v>
+        <v>0.02748096396881036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2620951760845373</v>
+        <v>0.1014038226313064</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03083405468056275</v>
+        <v>0.02282334635251015</v>
       </c>
     </row>
     <row r="59">
@@ -1786,22 +1786,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06887843117171989</v>
+        <v>0.07413602766769027</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01153254538421886</v>
+        <v>0.006880589079330003</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1089437242296245</v>
+        <v>0.09810022104986325</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02308731333232394</v>
+        <v>0.02777725173531835</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2643164911206533</v>
+        <v>0.09446528573574413</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03041138488783202</v>
+        <v>0.01470848441955614</v>
       </c>
     </row>
     <row r="60">
@@ -1809,22 +1809,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08275545553463291</v>
+        <v>0.0707741355461049</v>
       </c>
       <c r="C60" t="n">
-        <v>0.008710825525360807</v>
+        <v>0.009430465642442095</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1132118909656108</v>
+        <v>0.100019953858945</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02257504726887248</v>
+        <v>0.02302653337221157</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2574009361009515</v>
+        <v>0.09844158492349249</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03717177122567005</v>
+        <v>0.01699702586115912</v>
       </c>
     </row>
     <row r="61">
@@ -1832,22 +1832,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1058896240267333</v>
+        <v>0.07310080183117937</v>
       </c>
       <c r="C61" t="n">
-        <v>0.007518502716552698</v>
+        <v>0.007792362291995115</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1103436084166093</v>
+        <v>0.09356867420109656</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02244662326660332</v>
+        <v>0.02375113276903093</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2665860919645021</v>
+        <v>0.09592480378424779</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04258526227776439</v>
+        <v>0.0104174448947265</v>
       </c>
     </row>
     <row r="62">
@@ -1855,22 +1855,22 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1039204439251719</v>
+        <v>0.0767767129470011</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01515402755015257</v>
+        <v>0.01350607730333066</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1096342025844017</v>
+        <v>0.09790585466181539</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02105746825502889</v>
+        <v>0.0283053540412163</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2738349537034389</v>
+        <v>0.09469961371876912</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04693254020236073</v>
+        <v>0.005606088263165117</v>
       </c>
     </row>
     <row r="63">
@@ -1878,22 +1878,22 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.08985976623380644</v>
+        <v>0.07265803058363601</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01180012707065736</v>
+        <v>0.008203313772572675</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1122938029582049</v>
+        <v>0.0943158905506646</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01915679846320397</v>
+        <v>0.02575243739717634</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2635822817315058</v>
+        <v>0.1048957771032957</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0281988632889649</v>
+        <v>0.018737608882414</v>
       </c>
     </row>
     <row r="64">
@@ -1901,22 +1901,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07168277671263855</v>
+        <v>0.07592571389246995</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01050342193777969</v>
+        <v>0.00406494387182114</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1109342655765339</v>
+        <v>0.09963788946333176</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02283260416504745</v>
+        <v>0.02966595627553596</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2619812815524281</v>
+        <v>0.1173394676794222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03015632315796099</v>
+        <v>0.01586238276127621</v>
       </c>
     </row>
     <row r="65">
@@ -1924,22 +1924,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06435102592286089</v>
+        <v>0.07479480381317234</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0007713366319274972</v>
+        <v>0.004501991060089817</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1125233534575695</v>
+        <v>0.09333022972154748</v>
       </c>
       <c r="E65" t="n">
-        <v>0.023205838897795</v>
+        <v>0.02646506264761235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.265770287566078</v>
+        <v>0.1047211386981291</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02404981854165328</v>
+        <v>0.02064664041144212</v>
       </c>
     </row>
     <row r="66">
@@ -1947,22 +1947,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06807405551394941</v>
+        <v>0.07694055440787649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01737818878692008</v>
+        <v>0.0103592839052345</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1155722961950308</v>
+        <v>0.09416438061019837</v>
       </c>
       <c r="E66" t="n">
-        <v>0.02306171067773383</v>
+        <v>0.02809033692374883</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2595557783425244</v>
+        <v>0.09800849963755172</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04291459220872029</v>
+        <v>0.007240064327503706</v>
       </c>
     </row>
     <row r="67">
@@ -1970,22 +1970,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07016506546092947</v>
+        <v>0.07508406766363886</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01367123173715661</v>
+        <v>0.01491673371267963</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1111023482671599</v>
+        <v>0.09292280172621313</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02242697408106172</v>
+        <v>0.02457670496985135</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2568899545173494</v>
+        <v>0.08711797665330241</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02989183818884962</v>
+        <v>0.02254902878505073</v>
       </c>
     </row>
     <row r="68">
@@ -1993,22 +1993,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0782191123888477</v>
+        <v>0.07308028425192947</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02007297753441954</v>
+        <v>0.01557013170151117</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1116202265507961</v>
+        <v>0.08994610120310824</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02407437972077738</v>
+        <v>0.02650959589046942</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2512179828297904</v>
+        <v>0.1168516166335606</v>
       </c>
       <c r="G68" t="n">
-        <v>0.02917094967971911</v>
+        <v>0.01446155984918975</v>
       </c>
     </row>
     <row r="69">
@@ -2016,22 +2016,22 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0754102305978452</v>
+        <v>0.07325824718442973</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01454738886054256</v>
+        <v>0.01274497561502969</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1145074187548979</v>
+        <v>0.08348270100980774</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02425511090152033</v>
+        <v>0.02510005117053967</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2651060369338094</v>
+        <v>0.1273703558537322</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03918600530114637</v>
+        <v>0.01593773767928786</v>
       </c>
     </row>
     <row r="70">
@@ -2039,22 +2039,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06647596225623131</v>
+        <v>0.07837660202687345</v>
       </c>
       <c r="C70" t="n">
-        <v>0.007527435002320327</v>
+        <v>0.01201742880440316</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1177539793257127</v>
+        <v>0.08524780169953168</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0251408854960445</v>
+        <v>0.02396578699717397</v>
       </c>
       <c r="F70" t="n">
-        <v>0.267071477589879</v>
+        <v>0.1077690573358579</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03383381003200717</v>
+        <v>0.008652386943918415</v>
       </c>
     </row>
     <row r="71">
@@ -2062,22 +2062,22 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.07370373318125384</v>
+        <v>0.08026164414030028</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01260270761866227</v>
+        <v>0.01080286603847373</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1187536995186071</v>
+        <v>0.08407719156586936</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02529726788906918</v>
+        <v>0.02257212006211767</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2610649976121209</v>
+        <v>0.1105011635291698</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03037227201054551</v>
+        <v>0.007960062597406782</v>
       </c>
     </row>
     <row r="72">
@@ -2085,22 +2085,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08117393938247863</v>
+        <v>0.07353262906291073</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01679563941586899</v>
+        <v>0.004806109373067115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1137755661527644</v>
+        <v>0.08322797185121834</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02460041203406096</v>
+        <v>0.01943981437688371</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2709974844555524</v>
+        <v>0.1069038813521955</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04322757790850561</v>
+        <v>0.009814193469996022</v>
       </c>
     </row>
     <row r="73">
@@ -2108,22 +2108,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08299209712771165</v>
+        <v>0.07714136578481441</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004514448361414266</v>
+        <v>0.01102937772727834</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1161675733999921</v>
+        <v>0.08096624154578948</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0264749296128316</v>
+        <v>0.01941018054655396</v>
       </c>
       <c r="F73" t="n">
-        <v>0.24879945516071</v>
+        <v>0.1068843242336315</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03202446418496471</v>
+        <v>0.007467517151230441</v>
       </c>
     </row>
     <row r="74">
@@ -2131,22 +2131,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08293004840133987</v>
+        <v>0.07371301900885219</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01197553815312427</v>
+        <v>0.006970007539941454</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1140250513016755</v>
+        <v>0.08070995846252806</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02483212471570901</v>
+        <v>0.02026177496684888</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2501067419493729</v>
+        <v>0.1202257362784988</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03313420684951127</v>
+        <v>0.02124690745629537</v>
       </c>
     </row>
     <row r="75">
@@ -2154,22 +2154,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06780223723861284</v>
+        <v>0.07994978830434694</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01457733697646168</v>
+        <v>0.008721874179617409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1142711905007527</v>
+        <v>0.08088154802008012</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02617654266820162</v>
+        <v>0.022006547546548</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2571934175412248</v>
+        <v>0.1062145446541599</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03133232674983241</v>
+        <v>0.01274560811890021</v>
       </c>
     </row>
     <row r="76">
@@ -2177,22 +2177,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07000216531176549</v>
+        <v>0.08007089144750937</v>
       </c>
       <c r="C76" t="n">
-        <v>0.009236712301453349</v>
+        <v>0.008512661729558349</v>
       </c>
       <c r="D76" t="n">
-        <v>0.114427312368508</v>
+        <v>0.0820822081005344</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02852238954814356</v>
+        <v>0.01904598741267967</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2692595082807386</v>
+        <v>0.08971238373864714</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01479664753414275</v>
+        <v>0.01126551888872192</v>
       </c>
     </row>
     <row r="77">
@@ -2200,22 +2200,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07513741639506734</v>
+        <v>0.07647413872776369</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01123491105147523</v>
+        <v>0.006027528357997571</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1139026730219059</v>
+        <v>0.08179886550593392</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03003090590080223</v>
+        <v>0.02159189441831192</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2651282571861635</v>
+        <v>0.1034744419275295</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01657804489745118</v>
+        <v>0.02646445012685066</v>
       </c>
     </row>
     <row r="78">
@@ -2223,22 +2223,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08276784074971909</v>
+        <v>0.07971647252098853</v>
       </c>
       <c r="C78" t="n">
-        <v>0.009724087772840624</v>
+        <v>0.003051175604048211</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1162605223766887</v>
+        <v>0.08193572375043003</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03291815694699252</v>
+        <v>0.02008895195745498</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2582437525762105</v>
+        <v>0.1134664125439385</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007020277735721199</v>
+        <v>0.03810653705341611</v>
       </c>
     </row>
     <row r="79">
@@ -2246,22 +2246,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0769896537116443</v>
+        <v>0.08145668392675039</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01132306657880019</v>
+        <v>0.01052635892613263</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1182184871032234</v>
+        <v>0.08116538545005965</v>
       </c>
       <c r="E79" t="n">
-        <v>0.03506601131750387</v>
+        <v>0.01849363799732333</v>
       </c>
       <c r="F79" t="n">
-        <v>0.26712176330945</v>
+        <v>0.10605468496173</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01735546121736363</v>
+        <v>0.02594607449892489</v>
       </c>
     </row>
     <row r="80">
@@ -2269,22 +2269,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06606113973699955</v>
+        <v>0.07838069167992208</v>
       </c>
       <c r="C80" t="n">
-        <v>0.005441413778288919</v>
+        <v>0.001860960107930928</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1223080256314032</v>
+        <v>0.07861751136314316</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03496366502712119</v>
+        <v>0.01719608625416464</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2667990703466617</v>
+        <v>0.1096004223278658</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01971147265701144</v>
+        <v>0.02273183845314548</v>
       </c>
     </row>
     <row r="81">
@@ -2292,22 +2292,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05865250347158121</v>
+        <v>0.08020019142000261</v>
       </c>
       <c r="C81" t="n">
-        <v>0.002978682526953628</v>
+        <v>0.008623881751033428</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1240711091235513</v>
+        <v>0.08462907567590024</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0366336161324291</v>
+        <v>0.02168247019821708</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2652679234014682</v>
+        <v>0.124250348186051</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02532787665970703</v>
+        <v>0.02579269527181913</v>
       </c>
     </row>
     <row r="82">
@@ -2315,22 +2315,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.05744863650733654</v>
+        <v>0.08029365892426193</v>
       </c>
       <c r="C82" t="n">
-        <v>0.004852373330513417</v>
+        <v>0.008614254226223958</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1250525515387599</v>
+        <v>0.08570929641846246</v>
       </c>
       <c r="E82" t="n">
-        <v>0.03690874234822526</v>
+        <v>0.02609680333562017</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2644710170640547</v>
+        <v>0.1301751043413991</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01624008724900271</v>
+        <v>0.02664332774246975</v>
       </c>
     </row>
     <row r="83">
@@ -2338,22 +2338,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06622203886548773</v>
+        <v>0.06986579405831538</v>
       </c>
       <c r="C83" t="n">
-        <v>0.003437022046452075</v>
+        <v>0.008622946644753023</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1279468042270303</v>
+        <v>0.08090781774408136</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03641524052003516</v>
+        <v>0.02100296810801368</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2706697205768154</v>
+        <v>0.1080705801493869</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008131238770974653</v>
+        <v>0.01849704691992477</v>
       </c>
     </row>
     <row r="84">
@@ -2361,22 +2361,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.07447137464029184</v>
+        <v>0.0833939839225995</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01341068042717724</v>
+        <v>0.008543845859721769</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1279787653826953</v>
+        <v>0.08388297396340473</v>
       </c>
       <c r="E84" t="n">
-        <v>0.03512077323176871</v>
+        <v>0.02511220844442812</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2771141730363365</v>
+        <v>0.1003347965460799</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01224575222973871</v>
+        <v>0.008426224114606477</v>
       </c>
     </row>
     <row r="85">
@@ -2384,22 +2384,22 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07882521884546649</v>
+        <v>0.0830812811662185</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0234220429280523</v>
+        <v>0.008475339869449657</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1275550115125526</v>
+        <v>0.08358962791699744</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03596655751091491</v>
+        <v>0.02319895389179021</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2712919470547198</v>
+        <v>0.1171670054552206</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0078893712513789</v>
+        <v>0.02594807703674772</v>
       </c>
     </row>
     <row r="86">
@@ -2407,22 +2407,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.08157391182166629</v>
+        <v>0.08336458880292513</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02145378611037379</v>
+        <v>0.0083376126762441</v>
       </c>
       <c r="D86" t="n">
-        <v>0.13029955898689</v>
+        <v>0.08293171384170982</v>
       </c>
       <c r="E86" t="n">
-        <v>0.03663675169284823</v>
+        <v>0.02400162919761535</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2582252049928968</v>
+        <v>0.1243990463248161</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01602296671985753</v>
+        <v>0.03165234265030798</v>
       </c>
     </row>
     <row r="87">
@@ -2430,22 +2430,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.07304613314339761</v>
+        <v>0.08159164511122073</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01556504989395628</v>
+        <v>0.002168099617907795</v>
       </c>
       <c r="D87" t="n">
-        <v>0.131136399264919</v>
+        <v>0.08920359380325411</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03460095832309385</v>
+        <v>0.03204764232545877</v>
       </c>
       <c r="F87" t="n">
-        <v>0.262369051028056</v>
+        <v>0.1118733183326689</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01516196642778683</v>
+        <v>0.01010357073297747</v>
       </c>
     </row>
     <row r="88">
@@ -2453,22 +2453,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05991946628498342</v>
+        <v>0.08356195789115768</v>
       </c>
       <c r="C88" t="n">
-        <v>0.007801761709659998</v>
+        <v>0.008001159189895919</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1315313371134813</v>
+        <v>0.08753105083751021</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03538580846826092</v>
+        <v>0.0289230675337999</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2607895779078995</v>
+        <v>0.09732243330674618</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02193408489793244</v>
+        <v>0.005583612596833996</v>
       </c>
     </row>
     <row r="89">
@@ -2476,22 +2476,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05999019788891292</v>
+        <v>0.08235497547963685</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004883127808673013</v>
+        <v>0.006258297672463663</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1346879246701988</v>
+        <v>0.09006119604680983</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03704278422160424</v>
+        <v>0.02151546363529272</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2632035536074776</v>
+        <v>0.1113701290251402</v>
       </c>
       <c r="G89" t="n">
-        <v>0.007604448498220658</v>
+        <v>0.01507577912618133</v>
       </c>
     </row>
     <row r="90">
@@ -2499,22 +2499,22 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.06374764641765181</v>
+        <v>0.07629757164396211</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01065654578423371</v>
+        <v>0.004160026763941865</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1332517863720364</v>
+        <v>0.09062441808939974</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03699599517630477</v>
+        <v>0.02442667971385988</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2725496804555049</v>
+        <v>0.1398156375944218</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01665459112043869</v>
+        <v>0.03087050907348833</v>
       </c>
     </row>
     <row r="91">
@@ -2522,22 +2522,22 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06874377762530136</v>
+        <v>0.08288152746534293</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01093009901957999</v>
+        <v>0.005240963192669653</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1335496908453785</v>
+        <v>0.0884348878036217</v>
       </c>
       <c r="E91" t="n">
-        <v>0.03872839676502918</v>
+        <v>0.02370186725791568</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2726008231091789</v>
+        <v>0.1228698631155482</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02412725626866212</v>
+        <v>0.02803275615304196</v>
       </c>
     </row>
     <row r="92">
@@ -2545,22 +2545,22 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.07582843247653197</v>
+        <v>0.08016068495050858</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01721911889800938</v>
+        <v>0.002855761142688379</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1354700008045439</v>
+        <v>0.09730936280510616</v>
       </c>
       <c r="E92" t="n">
-        <v>0.03882879890970194</v>
+        <v>0.02778251388777933</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2767812815112736</v>
+        <v>0.1372593087426102</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005786600793167941</v>
+        <v>0.03120982350243693</v>
       </c>
     </row>
     <row r="93">
@@ -2568,22 +2568,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06705480886828546</v>
+        <v>0.08573999282549988</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02425849108481481</v>
+        <v>0.006251289328424808</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1353303806259686</v>
+        <v>0.08670233809399776</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03977978563809251</v>
+        <v>0.02155985193395321</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2628235051114691</v>
+        <v>0.1265706372472225</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01082582269738834</v>
+        <v>0.03339200816850675</v>
       </c>
     </row>
     <row r="94">
@@ -2591,22 +2591,22 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.06828583778611307</v>
+        <v>0.08045801445708146</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02730132483899393</v>
+        <v>0.001130998904645269</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1360904616295363</v>
+        <v>0.08825041694265068</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0411341396472145</v>
+        <v>0.02288948788064245</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2651772538490007</v>
+        <v>0.1131159374406082</v>
       </c>
       <c r="G94" t="n">
-        <v>0.004626970810601045</v>
+        <v>0.01995840962167083</v>
       </c>
     </row>
     <row r="95">
@@ -2614,22 +2614,22 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.07278713359664916</v>
+        <v>0.08884609696917307</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01323560431098768</v>
+        <v>0.005398335173733305</v>
       </c>
       <c r="D95" t="n">
-        <v>0.136595488523571</v>
+        <v>0.09502142535425012</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04212384897651993</v>
+        <v>0.03194068168584661</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2621094142545323</v>
+        <v>0.1249741988873603</v>
       </c>
       <c r="G95" t="n">
-        <v>0.006850835585284152</v>
+        <v>0.02355476937541592</v>
       </c>
     </row>
     <row r="96">
@@ -2637,22 +2637,22 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07160894397714614</v>
+        <v>0.08541007781774528</v>
       </c>
       <c r="C96" t="n">
-        <v>0.007710898749870223</v>
+        <v>0.002938978664850073</v>
       </c>
       <c r="D96" t="n">
-        <v>0.137862384330988</v>
+        <v>0.08726632098869473</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04363701488594551</v>
+        <v>0.0193231164843548</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2574024706264395</v>
+        <v>0.1302666489107431</v>
       </c>
       <c r="G96" t="n">
-        <v>0.003036341571774816</v>
+        <v>0.0278188892143924</v>
       </c>
     </row>
     <row r="97">
@@ -2660,22 +2660,22 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07523794044613664</v>
+        <v>0.08508230114221045</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0154795348372804</v>
+        <v>0.006623527578405726</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1396821422291354</v>
+        <v>0.08456975915435853</v>
       </c>
       <c r="E97" t="n">
-        <v>0.04555660168959179</v>
+        <v>0.01023054251375081</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2533169905315646</v>
+        <v>0.09254143717089058</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006533492088479821</v>
+        <v>0.006030959430208123</v>
       </c>
     </row>
     <row r="98">
@@ -2683,22 +2683,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0683451299359254</v>
+        <v>0.07960267591820279</v>
       </c>
       <c r="C98" t="n">
-        <v>0.009380302500482414</v>
+        <v>0.002878641537840002</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1401734601232492</v>
+        <v>0.08084014126010268</v>
       </c>
       <c r="E98" t="n">
-        <v>0.05059517277667004</v>
+        <v>0.008643141445288922</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2572543119702753</v>
+        <v>0.1034551738202283</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01077855515590335</v>
+        <v>0.009554327183129315</v>
       </c>
     </row>
     <row r="99">
@@ -2706,22 +2706,22 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.05986633555157698</v>
+        <v>0.08530700165736758</v>
       </c>
       <c r="C99" t="n">
-        <v>0.007686175920898666</v>
+        <v>0.00664496487628558</v>
       </c>
       <c r="D99" t="n">
-        <v>0.137604582919526</v>
+        <v>0.08259295753722341</v>
       </c>
       <c r="E99" t="n">
-        <v>0.04885833824937958</v>
+        <v>0.005199361495806828</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2783715574182334</v>
+        <v>0.1091771835724761</v>
       </c>
       <c r="G99" t="n">
-        <v>0.009991484817040815</v>
+        <v>0.02640157250252105</v>
       </c>
     </row>
     <row r="100">
@@ -2729,22 +2729,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.05924353447614746</v>
+        <v>0.08332312663146557</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01983992916609123</v>
+        <v>0.003506947025856281</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1334431518798016</v>
+        <v>0.08416794972245545</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04791517012471654</v>
+        <v>0.006272105184747241</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2800926865366875</v>
+        <v>0.1135140069966066</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03052510749952158</v>
+        <v>0.03613456023170111</v>
       </c>
     </row>
     <row r="101">
@@ -2752,22 +2752,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08565057024599994</v>
+        <v>0.08085666400903531</v>
       </c>
       <c r="C101" t="n">
-        <v>0.03013640926435517</v>
+        <v>0.00589269348463168</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1258187561931292</v>
+        <v>0.08736486932084821</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0389073154672252</v>
+        <v>0.002476490681833976</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2823776119087741</v>
+        <v>0.0947896472364715</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03274332035050936</v>
+        <v>0.02190465189965083</v>
       </c>
     </row>
   </sheetData>
